--- a/ModelComparison.xlsx
+++ b/ModelComparison.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20055" windowHeight="16455"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Merged" sheetId="1" r:id="rId1"/>
+    <sheet name="7 Day Mortality" sheetId="2" r:id="rId2"/>
+    <sheet name="30 Day Mortality" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>DOF</t>
   </si>
@@ -46,12 +46,6 @@
     <t>AUC</t>
   </si>
   <si>
-    <t>Last HeRO Value</t>
-  </si>
-  <si>
-    <t>Last HeRO Value + 6 Clusters</t>
-  </si>
-  <si>
     <t>Birthweight</t>
   </si>
   <si>
@@ -70,30 +64,9 @@
     <t>Birthweight + 6 Clusters</t>
   </si>
   <si>
-    <t>Birthweight + Last HeRO Value</t>
-  </si>
-  <si>
-    <t>Birthweight + Last HeRO Value + 2 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight + Last HeRO Value + 3 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight + Last HeRO Value + 4 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight + Last HeRO Value + 5 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight + Last HeRO Value + 6 Clusters</t>
-  </si>
-  <si>
     <t>Birthweight/Days of Age</t>
   </si>
   <si>
-    <t>Birthweight/Days of Age + Last HeRO Value</t>
-  </si>
-  <si>
     <t>Birthweight/Days of Age + 2 Clusters</t>
   </si>
   <si>
@@ -127,40 +100,262 @@
     <t>Birthweight/Days of Age + 12 Clusters</t>
   </si>
   <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 2 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 3 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 4 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 5 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 6 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 7 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 8 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 9 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 10 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 11 Clusters</t>
-  </si>
-  <si>
-    <t>Birthweight/Days of Age + Last HeRO Value + 12 Clusters</t>
-  </si>
-  <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Seven Day Mortality</t>
+  </si>
+  <si>
+    <t>Thirty Day Mortality</t>
+  </si>
+  <si>
+    <t>Birthweight + 7 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + 8 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + 9 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + 10 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + 11 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + 12 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 2 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 3 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 4 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 5 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 6 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 7 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 8 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 9 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 10 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 11 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight + Last HeRO Score + 12 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 2 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 3 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 4 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 5 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 6 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 7 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 8 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 9 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 10 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 11 Clusters</t>
+  </si>
+  <si>
+    <t>Birthweight/Days of Age + Last HeRO Score + 12 Clusters</t>
+  </si>
+  <si>
+    <t>Last HeRO Score</t>
+  </si>
+  <si>
+    <t>Last HeRO Score + 6 Clusters</t>
+  </si>
+  <si>
+    <t>BWT</t>
+  </si>
+  <si>
+    <t>BWT + 2 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 3 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 4 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 5 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 6 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 7 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 8 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 9 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 10 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 11 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + 12 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 2 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 3 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 4 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 5 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 6 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 7 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 8 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 9 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 10 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 11 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT + Last Value + 12 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 2 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 3 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 4 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 5 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 6 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 7 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 8 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 9 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 10 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 11 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + 12 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 2 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 3 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 4 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 5 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 6 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 7 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 8 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 9 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 10 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 11 Neighborhoods</t>
+  </si>
+  <si>
+    <t>BWT/DOA + Last Value + 12 Neighborhoods</t>
+  </si>
+  <si>
+    <t>Last Value</t>
+  </si>
+  <si>
+    <t>Last Value + 6 Neighborhoods</t>
+  </si>
+  <si>
+    <t>30 Day Mortality</t>
   </si>
 </sst>
 </file>
@@ -192,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -237,15 +432,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,9 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -545,903 +959,2637 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>964.2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>970.4</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1760</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1766.3</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>922.7</v>
+      </c>
+      <c r="D4" s="16">
+        <v>935.2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1670.3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1682.8</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14">
+        <v>923.2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>941.9</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1661.7</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1680.5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14">
+        <v>913.7</v>
+      </c>
+      <c r="D6" s="16">
+        <v>938.7</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1662.7</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1687.7</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14">
+        <v>915.4</v>
+      </c>
+      <c r="D7" s="16">
+        <v>946.6</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1664.7</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1695.9</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14">
+        <v>907.6</v>
+      </c>
+      <c r="D8" s="16">
+        <v>945.1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1646.9</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1684.3</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="18">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14">
+        <v>908.7</v>
+      </c>
+      <c r="D9" s="16">
+        <v>952.4</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1648</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1691.7</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="18">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14">
+        <v>910.4</v>
+      </c>
+      <c r="D10" s="16">
+        <v>960.4</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1649.9</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1699.9</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="18">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14">
+        <v>911.2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>967.4</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1651.4</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1707.6</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14">
+        <v>907.8</v>
+      </c>
+      <c r="D12" s="16">
+        <v>970.2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1653.4</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1715.8</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="18">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14">
+        <v>909.4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>978.1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1652.4</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1721.1</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="20">
+        <v>12</v>
+      </c>
+      <c r="C14" s="19">
+        <v>909.5</v>
+      </c>
+      <c r="D14" s="21">
+        <v>984.4</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1653.2</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1728.1</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="18">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>924.8</v>
+      </c>
+      <c r="D15" s="16">
+        <v>937.3</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1683.5</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1696</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="18">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>912.6</v>
+      </c>
+      <c r="D16" s="16">
+        <v>931.3</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1651.8</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1670.6</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="18">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <v>914.6</v>
+      </c>
+      <c r="D17" s="16">
+        <v>939.6</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1651</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1676</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="14">
+        <v>910.6</v>
+      </c>
+      <c r="D18" s="16">
+        <v>941.9</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1652.9</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1684.2</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="18">
+        <v>6</v>
+      </c>
+      <c r="C19" s="14">
+        <v>912.6</v>
+      </c>
+      <c r="D19" s="16">
+        <v>950.1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1654.6</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1692</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="18">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14">
+        <v>907.9</v>
+      </c>
+      <c r="D20" s="16">
+        <v>951.6</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1643.7</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1687.4</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="18">
+        <v>8</v>
+      </c>
+      <c r="C21" s="14">
+        <v>909</v>
+      </c>
+      <c r="D21" s="16">
+        <v>959</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1645</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1695</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="18">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14">
+        <v>910.6</v>
+      </c>
+      <c r="D22" s="16">
+        <v>966.8</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1647</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1703.2</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="18">
+        <v>10</v>
+      </c>
+      <c r="C23" s="14">
+        <v>911.7</v>
+      </c>
+      <c r="D23" s="16">
+        <v>974.1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1648.8</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1711.2</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="18">
+        <v>11</v>
+      </c>
+      <c r="C24" s="14">
+        <v>908.6</v>
+      </c>
+      <c r="D24" s="16">
+        <v>977.3</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1650.7</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1719.4</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="18">
+        <v>12</v>
+      </c>
+      <c r="C25" s="14">
+        <v>910.5</v>
+      </c>
+      <c r="D25" s="16">
+        <v>985.4</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1651.5</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1726.4</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B26" s="20">
+        <v>13</v>
+      </c>
+      <c r="C26" s="19">
+        <v>910.3</v>
+      </c>
+      <c r="D26" s="21">
+        <v>991.5</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1651.8</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1732.9</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
+        <v>936.5</v>
+      </c>
+      <c r="D27" s="16">
+        <v>942.8</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1738.3</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1744.6</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="18">
+        <v>2</v>
+      </c>
+      <c r="C28" s="14">
+        <v>889.7</v>
+      </c>
+      <c r="D28" s="16">
+        <v>902.2</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1634.4</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1646.9</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="18">
+        <v>3</v>
+      </c>
+      <c r="C29" s="14">
+        <v>888.9</v>
+      </c>
+      <c r="D29" s="16">
+        <v>907.7</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1622.3</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1641</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="18">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14">
+        <v>878.9</v>
+      </c>
+      <c r="D30" s="16">
+        <v>903.8</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1623.1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1648</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="18">
+        <v>5</v>
+      </c>
+      <c r="C31" s="14">
+        <v>880.7</v>
+      </c>
+      <c r="D31" s="16">
+        <v>911.9</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1625.1</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1656.3</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="23">
+        <v>6</v>
+      </c>
+      <c r="C32" s="24">
+        <v>865.6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>903.1</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1601.1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1638.6</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="18">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14">
+        <v>866.9</v>
+      </c>
+      <c r="D33" s="16">
+        <v>910.6</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1602.5</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1646.2</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="18">
+        <v>8</v>
+      </c>
+      <c r="C34" s="14">
+        <v>868.6</v>
+      </c>
+      <c r="D34" s="16">
+        <v>918.6</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1604.2</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1654.1</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="18">
+        <v>9</v>
+      </c>
+      <c r="C35" s="14">
+        <v>869.5</v>
+      </c>
+      <c r="D35" s="16">
+        <v>925.7</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1605.1</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1661.3</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="18">
+        <v>10</v>
+      </c>
+      <c r="C36" s="14">
+        <v>865.8</v>
+      </c>
+      <c r="D36" s="16">
+        <v>928.2</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1607</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1669.4</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="18">
+        <v>11</v>
+      </c>
+      <c r="C37" s="14">
+        <v>867.6</v>
+      </c>
+      <c r="D37" s="16">
+        <v>936.3</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1606.2</v>
+      </c>
+      <c r="G37" s="16">
+        <v>1674.9</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="20">
+        <v>12</v>
+      </c>
+      <c r="C38" s="19">
+        <v>867.7</v>
+      </c>
+      <c r="D38" s="21">
+        <v>942.6</v>
+      </c>
+      <c r="E38" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="F38" s="19">
+        <v>1607.4</v>
+      </c>
+      <c r="G38" s="21">
+        <v>1682.4</v>
+      </c>
+      <c r="H38" s="22">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="18">
+        <v>2</v>
+      </c>
+      <c r="C39" s="14">
+        <v>891.7</v>
+      </c>
+      <c r="D39" s="16">
+        <v>904.2</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1646.9</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1659.4</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="18">
+        <v>3</v>
+      </c>
+      <c r="C40" s="14">
+        <v>878.6</v>
+      </c>
+      <c r="D40" s="16">
+        <v>897.3</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1612</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1630.8</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="18">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14">
+        <v>880.5</v>
+      </c>
+      <c r="D41" s="16">
+        <v>905.5</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1610</v>
+      </c>
+      <c r="G41" s="16">
+        <v>1634.9</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="18">
+        <v>5</v>
+      </c>
+      <c r="C42" s="14">
+        <v>876.2</v>
+      </c>
+      <c r="D42" s="16">
+        <v>907.4</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1611.9</v>
+      </c>
+      <c r="G42" s="16">
+        <v>1643.1</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="18">
+        <v>6</v>
+      </c>
+      <c r="C43" s="14">
+        <v>878.2</v>
+      </c>
+      <c r="D43" s="16">
+        <v>915.6</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F43" s="14">
+        <v>1613.4</v>
+      </c>
+      <c r="G43" s="16">
+        <v>1650.9</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="23">
+        <v>7</v>
+      </c>
+      <c r="C44" s="24">
+        <v>866.7</v>
+      </c>
+      <c r="D44" s="2">
+        <v>910.4</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0.77</v>
+      </c>
+      <c r="F44" s="24">
+        <v>1597.9</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1641.6</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="18">
+        <v>8</v>
+      </c>
+      <c r="C45" s="14">
+        <v>868</v>
+      </c>
+      <c r="D45" s="16">
+        <v>918</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1599.4</v>
+      </c>
+      <c r="G45" s="16">
+        <v>1649.4</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="18">
+        <v>9</v>
+      </c>
+      <c r="C46" s="14">
+        <v>869.7</v>
+      </c>
+      <c r="D46" s="16">
+        <v>925.8</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="F46" s="14">
+        <v>1601.4</v>
+      </c>
+      <c r="G46" s="16">
+        <v>1657.6</v>
+      </c>
+      <c r="H46" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="18">
+        <v>10</v>
+      </c>
+      <c r="C47" s="14">
+        <v>870.8</v>
+      </c>
+      <c r="D47" s="16">
+        <v>933.2</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1602.7</v>
+      </c>
+      <c r="G47" s="16">
+        <v>1665.2</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="18">
+        <v>11</v>
+      </c>
+      <c r="C48" s="14">
+        <v>867.3</v>
+      </c>
+      <c r="D48" s="16">
+        <v>936</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="F48" s="14">
+        <v>1604.7</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1673.4</v>
+      </c>
+      <c r="H48" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="18">
+        <v>12</v>
+      </c>
+      <c r="C49" s="14">
+        <v>869.3</v>
+      </c>
+      <c r="D49" s="16">
+        <v>944.2</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1605.5</v>
+      </c>
+      <c r="G49" s="16">
+        <v>1680.5</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="20">
+        <v>13</v>
+      </c>
+      <c r="C50" s="19">
+        <v>869.2</v>
+      </c>
+      <c r="D50" s="21">
+        <v>950.4</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0.79</v>
+      </c>
+      <c r="F50" s="19">
+        <v>1606.4</v>
+      </c>
+      <c r="G50" s="21">
+        <v>1687.6</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="18">
+        <v>1</v>
+      </c>
+      <c r="C51" s="14">
+        <v>932.9</v>
+      </c>
+      <c r="D51" s="16">
+        <v>939.1</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1708.8</v>
+      </c>
+      <c r="G51" s="16">
+        <v>1715</v>
+      </c>
+      <c r="H51" s="17">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="20">
+        <v>6</v>
+      </c>
+      <c r="C52" s="19">
+        <v>912.1</v>
+      </c>
+      <c r="D52" s="21">
+        <v>949.5</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0.74</v>
+      </c>
+      <c r="F52" s="19">
+        <v>1658.2</v>
+      </c>
+      <c r="G52" s="21">
+        <v>1695.6</v>
+      </c>
+      <c r="H52" s="22">
+        <v>0.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B52">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C52">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D52">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E52">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F52">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G52">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1760</v>
-      </c>
-      <c r="D2">
-        <v>1766.3</v>
-      </c>
-      <c r="E2">
-        <v>0.64</v>
-      </c>
-      <c r="G2">
-        <v>1758</v>
-      </c>
-      <c r="H2">
-        <v>5.8860000000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1670.3</v>
+        <v>964.2</v>
       </c>
       <c r="D3">
-        <v>1682.8</v>
+        <v>970.4</v>
       </c>
       <c r="E3">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="G3">
-        <v>1666.3</v>
+        <v>962.2</v>
       </c>
       <c r="H3">
-        <v>5.6739999999999999E-2</v>
+        <v>2.742E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1661.7</v>
+        <v>922.7</v>
       </c>
       <c r="D4">
-        <v>1680.5</v>
+        <v>935.2</v>
       </c>
       <c r="E4">
-        <v>0.71</v>
+        <v>0.69</v>
       </c>
       <c r="G4">
-        <v>1655.7</v>
+        <v>918.7</v>
       </c>
       <c r="H4">
-        <v>5.6559999999999999E-2</v>
+        <v>2.6880000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1662.7</v>
+        <v>923.2</v>
       </c>
       <c r="D5">
-        <v>1687.7</v>
+        <v>941.9</v>
       </c>
       <c r="E5">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="G5">
-        <v>1654.7</v>
+        <v>917.2</v>
       </c>
       <c r="H5">
-        <v>5.654E-2</v>
+        <v>2.6870000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1664.7</v>
+        <v>913.7</v>
       </c>
       <c r="D6">
-        <v>1695.9</v>
+        <v>938.7</v>
       </c>
       <c r="E6">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="G6">
-        <v>1654.7</v>
+        <v>905.7</v>
       </c>
       <c r="H6">
-        <v>5.654E-2</v>
+        <v>2.6679999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1646.9</v>
+        <v>915.4</v>
       </c>
       <c r="D7">
-        <v>1684.3</v>
+        <v>946.6</v>
       </c>
       <c r="E7">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="G7">
-        <v>1634.9</v>
+        <v>905.4</v>
       </c>
       <c r="H7">
-        <v>5.636E-2</v>
+        <v>2.6679999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1683.5</v>
+        <v>907.6</v>
       </c>
       <c r="D8">
-        <v>1696</v>
+        <v>945.1</v>
       </c>
       <c r="E8">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="G8">
-        <v>1679.5</v>
+        <v>895.6</v>
       </c>
       <c r="H8">
-        <v>5.7299999999999997E-2</v>
+        <v>2.665E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>1651.8</v>
+        <v>908.7</v>
       </c>
       <c r="D9">
-        <v>1670.6</v>
+        <v>952.4</v>
       </c>
       <c r="E9">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="G9">
-        <v>1645.8</v>
+        <v>894.7</v>
       </c>
       <c r="H9">
-        <v>5.6439999999999997E-2</v>
+        <v>2.6620000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1651</v>
+        <v>910.4</v>
       </c>
       <c r="D10">
-        <v>1676</v>
+        <v>960.4</v>
       </c>
       <c r="E10">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="G10">
-        <v>1643</v>
+        <v>894.4</v>
       </c>
       <c r="H10">
-        <v>5.6370000000000003E-2</v>
+        <v>2.6620000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>1652.9</v>
+        <v>911.2</v>
       </c>
       <c r="D11">
-        <v>1684.2</v>
+        <v>967.4</v>
       </c>
       <c r="E11">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="G11">
-        <v>1642.9</v>
+        <v>893.2</v>
       </c>
       <c r="H11">
-        <v>5.636E-2</v>
+        <v>2.6610000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>1654.6</v>
+        <v>907.8</v>
       </c>
       <c r="D12">
-        <v>1692</v>
+        <v>970.2</v>
       </c>
       <c r="E12">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="G12">
-        <v>1642.6</v>
+        <v>887.8</v>
       </c>
       <c r="H12">
-        <v>5.636E-2</v>
+        <v>2.6589999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>1643.7</v>
+        <v>909.4</v>
       </c>
       <c r="D13">
-        <v>1687.4</v>
+        <v>978.1</v>
       </c>
       <c r="E13">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="G13">
-        <v>1629.7</v>
+        <v>887.4</v>
       </c>
       <c r="H13">
-        <v>5.6250000000000001E-2</v>
+        <v>2.6589999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1738.3</v>
-      </c>
-      <c r="D14">
-        <v>1744.6</v>
-      </c>
-      <c r="E14">
-        <v>0.62</v>
+      <c r="A14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="21">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21">
+        <v>909.5</v>
+      </c>
+      <c r="D14" s="21">
+        <v>984.4</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.75</v>
       </c>
       <c r="G14">
-        <v>1736.3</v>
+        <v>885.5</v>
       </c>
       <c r="H14">
-        <v>5.8299999999999998E-2</v>
+        <v>2.6579999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>1634.4</v>
+        <v>924.8</v>
       </c>
       <c r="D15">
-        <v>1646.9</v>
+        <v>937.3</v>
       </c>
       <c r="E15">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="G15">
-        <v>1630.4</v>
+        <v>920.8</v>
       </c>
       <c r="H15">
-        <v>5.5440000000000003E-2</v>
+        <v>2.7019999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>1622.3</v>
+        <v>912.6</v>
       </c>
       <c r="D16">
-        <v>1641</v>
+        <v>931.3</v>
       </c>
       <c r="E16">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="G16">
-        <v>1616.3</v>
+        <v>906.6</v>
       </c>
       <c r="H16">
-        <v>5.5169999999999997E-2</v>
+        <v>2.6780000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>1623.1</v>
+        <v>914.6</v>
       </c>
       <c r="D17">
-        <v>1648</v>
+        <v>939.6</v>
       </c>
       <c r="E17">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="G17">
-        <v>1615.1</v>
+        <v>906.6</v>
       </c>
       <c r="H17">
-        <v>5.5120000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.6780000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
-        <v>1625.1</v>
+        <v>910.6</v>
       </c>
       <c r="D18">
-        <v>1656.3</v>
+        <v>941.9</v>
       </c>
       <c r="E18">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="G18">
-        <v>1615.1</v>
+        <v>900.6</v>
       </c>
       <c r="H18">
-        <v>5.5120000000000002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="2">
-        <v>1601.1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1638.6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.74</v>
+      <c r="C19">
+        <v>912.6</v>
+      </c>
+      <c r="D19">
+        <v>950.1</v>
+      </c>
+      <c r="E19">
+        <v>0.72</v>
       </c>
       <c r="G19">
-        <v>1589.1</v>
+        <v>900.6</v>
       </c>
       <c r="H19">
-        <v>5.4760000000000003E-2</v>
+        <v>2.6700000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20">
-        <v>1602.5</v>
+        <v>907.9</v>
       </c>
       <c r="D20">
-        <v>1646.2</v>
+        <v>951.6</v>
       </c>
       <c r="E20">
         <v>0.74</v>
       </c>
       <c r="G20">
-        <v>1588.5</v>
+        <v>893.9</v>
       </c>
       <c r="H20">
-        <v>5.4739999999999997E-2</v>
+        <v>2.666E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21">
-        <v>1604.2</v>
+        <v>909</v>
       </c>
       <c r="D21">
-        <v>1654.1</v>
+        <v>959</v>
       </c>
       <c r="E21">
         <v>0.74</v>
       </c>
       <c r="G21">
-        <v>1588.2</v>
+        <v>893</v>
       </c>
       <c r="H21">
-        <v>5.4730000000000001E-2</v>
+        <v>2.6630000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22">
-        <v>1605.1</v>
+        <v>910.6</v>
       </c>
       <c r="D22">
-        <v>1661.3</v>
+        <v>966.8</v>
       </c>
       <c r="E22">
         <v>0.74</v>
       </c>
       <c r="G22">
-        <v>1587.1</v>
+        <v>892.6</v>
       </c>
       <c r="H22">
-        <v>5.4710000000000002E-2</v>
+        <v>2.6630000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>1607</v>
+        <v>911.7</v>
       </c>
       <c r="D23">
-        <v>1669.4</v>
+        <v>974.1</v>
       </c>
       <c r="E23">
         <v>0.74</v>
       </c>
       <c r="G23">
-        <v>1587</v>
+        <v>891.7</v>
       </c>
       <c r="H23">
-        <v>5.4719999999999998E-2</v>
+        <v>2.6620000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>11</v>
       </c>
       <c r="C24">
-        <v>1606.2</v>
+        <v>908.6</v>
       </c>
       <c r="D24">
-        <v>1674.9</v>
+        <v>977.3</v>
       </c>
       <c r="E24">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="G24">
-        <v>1584.2</v>
+        <v>886.6</v>
       </c>
       <c r="H24">
-        <v>5.4679999999999999E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>1607.4</v>
+        <v>910.5</v>
       </c>
       <c r="D25">
-        <v>1682.4</v>
+        <v>985.4</v>
       </c>
       <c r="E25">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="G25">
-        <v>1583.4</v>
+        <v>886.5</v>
       </c>
       <c r="H25">
-        <v>5.4679999999999999E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1646.9</v>
-      </c>
-      <c r="D26">
-        <v>1659.4</v>
-      </c>
-      <c r="E26">
-        <v>0.71</v>
+      <c r="A26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="21">
+        <v>13</v>
+      </c>
+      <c r="C26" s="21">
+        <v>910.3</v>
+      </c>
+      <c r="D26" s="21">
+        <v>991.5</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.75</v>
       </c>
       <c r="G26">
-        <v>1642.9</v>
+        <v>884.3</v>
       </c>
       <c r="H26">
-        <v>5.6149999999999999E-2</v>
+        <v>2.6589999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1612</v>
+        <v>936.5</v>
       </c>
       <c r="D27">
-        <v>1630.8</v>
+        <v>942.8</v>
       </c>
       <c r="E27">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="G27">
-        <v>1606</v>
+        <v>934.5</v>
       </c>
       <c r="H27">
-        <v>5.5039999999999999E-2</v>
+        <v>2.726E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1610</v>
+        <v>889.7</v>
       </c>
       <c r="D28">
-        <v>1634.9</v>
+        <v>902.2</v>
       </c>
       <c r="E28">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="G28">
-        <v>1602</v>
+        <v>885.7</v>
       </c>
       <c r="H28">
-        <v>5.493E-2</v>
+        <v>2.6239999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>888.9</v>
+      </c>
+      <c r="D29">
+        <v>907.7</v>
+      </c>
+      <c r="E29">
+        <v>0.71</v>
+      </c>
+      <c r="G29">
+        <v>882.9</v>
+      </c>
+      <c r="H29">
+        <v>2.6169999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>878.9</v>
+      </c>
+      <c r="D30">
+        <v>903.8</v>
+      </c>
+      <c r="E30">
+        <v>0.72</v>
+      </c>
+      <c r="G30">
+        <v>870.9</v>
+      </c>
+      <c r="H30">
+        <v>2.6020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
         <v>5</v>
       </c>
-      <c r="C29">
-        <v>1611.9</v>
-      </c>
-      <c r="D29">
-        <v>1643.1</v>
-      </c>
-      <c r="E29">
-        <v>0.73</v>
-      </c>
-      <c r="G29">
-        <v>1601.9</v>
-      </c>
-      <c r="H29">
-        <v>5.493E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
+      <c r="C31">
+        <v>880.7</v>
+      </c>
+      <c r="D31">
+        <v>911.9</v>
+      </c>
+      <c r="E31">
+        <v>0.72</v>
+      </c>
+      <c r="G31">
+        <v>870.7</v>
+      </c>
+      <c r="H31">
+        <v>2.6020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C30">
-        <v>1613.4</v>
-      </c>
-      <c r="D30">
-        <v>1650.9</v>
-      </c>
-      <c r="E30">
-        <v>0.73</v>
-      </c>
-      <c r="G30">
-        <v>1601.4</v>
-      </c>
-      <c r="H30">
-        <v>5.4919999999999997E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1597.9</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1641.6</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="G31">
-        <v>1583.9</v>
-      </c>
-      <c r="H31">
-        <v>5.4649999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>1599.4</v>
-      </c>
-      <c r="D32">
-        <v>1649.4</v>
-      </c>
-      <c r="E32">
-        <v>0.74</v>
+      <c r="C32" s="2">
+        <v>865.6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>903.1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.77</v>
       </c>
       <c r="G32">
-        <v>1583.4</v>
+        <v>853.6</v>
       </c>
       <c r="H32">
-        <v>5.4629999999999998E-2</v>
+        <v>2.58E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>1601.4</v>
+        <v>866.9</v>
       </c>
       <c r="D33">
-        <v>1657.6</v>
+        <v>910.6</v>
       </c>
       <c r="E33">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="G33">
-        <v>1583.4</v>
+        <v>852.9</v>
       </c>
       <c r="H33">
-        <v>5.4629999999999998E-2</v>
+        <v>2.5780000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>1602.7</v>
+        <v>868.6</v>
       </c>
       <c r="D34">
-        <v>1665.2</v>
+        <v>918.6</v>
       </c>
       <c r="E34">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="G34">
-        <v>1582.7</v>
+        <v>852.6</v>
       </c>
       <c r="H34">
-        <v>5.4620000000000002E-2</v>
+        <v>2.579E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>1604.7</v>
+        <v>869.5</v>
       </c>
       <c r="D35">
-        <v>1673.4</v>
+        <v>925.7</v>
       </c>
       <c r="E35">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="G35">
-        <v>1582.7</v>
+        <v>851.5</v>
       </c>
       <c r="H35">
-        <v>5.4620000000000002E-2</v>
+        <v>2.579E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>1605.5</v>
+        <v>865.8</v>
       </c>
       <c r="D36">
-        <v>1680.5</v>
+        <v>928.2</v>
       </c>
       <c r="E36">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="G36">
-        <v>1581.5</v>
+        <v>845.8</v>
       </c>
       <c r="H36">
-        <v>5.4600000000000003E-2</v>
+        <v>2.5770000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>1606.4</v>
+        <v>867.6</v>
       </c>
       <c r="D37">
-        <v>1687.6</v>
+        <v>936.3</v>
       </c>
       <c r="E37">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="G37">
-        <v>1580.4</v>
+        <v>845.6</v>
       </c>
       <c r="H37">
-        <v>5.459E-2</v>
+        <v>2.5770000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1708.8</v>
-      </c>
-      <c r="D38">
-        <v>1715</v>
-      </c>
-      <c r="E38">
-        <v>0.69</v>
+      <c r="A38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="21">
+        <v>12</v>
+      </c>
+      <c r="C38" s="21">
+        <v>867.7</v>
+      </c>
+      <c r="D38" s="21">
+        <v>942.6</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.78</v>
       </c>
       <c r="G38">
-        <v>1706.8</v>
+        <v>843.7</v>
       </c>
       <c r="H38">
-        <v>5.8139999999999997E-2</v>
+        <v>2.5760000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>891.7</v>
+      </c>
+      <c r="D39">
+        <v>904.2</v>
+      </c>
+      <c r="E39">
+        <v>0.74</v>
+      </c>
+      <c r="G39">
+        <v>887.7</v>
+      </c>
+      <c r="H39">
+        <v>2.6460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>878.6</v>
+      </c>
+      <c r="D40">
+        <v>897.3</v>
+      </c>
+      <c r="E40">
+        <v>0.75</v>
+      </c>
+      <c r="G40">
+        <v>872.6</v>
+      </c>
+      <c r="H40">
+        <v>2.606E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>880.5</v>
+      </c>
+      <c r="D41">
+        <v>905.5</v>
+      </c>
+      <c r="E41">
+        <v>0.75</v>
+      </c>
+      <c r="G41">
+        <v>872.5</v>
+      </c>
+      <c r="H41">
+        <v>2.605E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>876.2</v>
+      </c>
+      <c r="D42">
+        <v>907.4</v>
+      </c>
+      <c r="E42">
+        <v>0.75</v>
+      </c>
+      <c r="G42">
+        <v>866.2</v>
+      </c>
+      <c r="H42">
+        <v>2.6009999999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>878.2</v>
+      </c>
+      <c r="D43">
+        <v>915.6</v>
+      </c>
+      <c r="E43">
+        <v>0.75</v>
+      </c>
+      <c r="G43">
+        <v>866.2</v>
+      </c>
+      <c r="H43">
+        <v>2.6009999999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2">
         <v>7</v>
       </c>
-      <c r="B39">
+      <c r="C44" s="2">
+        <v>866.7</v>
+      </c>
+      <c r="D44" s="2">
+        <v>910.4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="G44">
+        <v>852.7</v>
+      </c>
+      <c r="H44">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>868</v>
+      </c>
+      <c r="D45">
+        <v>918</v>
+      </c>
+      <c r="E45">
+        <v>0.77</v>
+      </c>
+      <c r="G45">
+        <v>852</v>
+      </c>
+      <c r="H45">
+        <v>2.579E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>869.7</v>
+      </c>
+      <c r="D46">
+        <v>925.8</v>
+      </c>
+      <c r="E46">
+        <v>0.77</v>
+      </c>
+      <c r="G46">
+        <v>851.7</v>
+      </c>
+      <c r="H46">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>870.8</v>
+      </c>
+      <c r="D47">
+        <v>933.2</v>
+      </c>
+      <c r="E47">
+        <v>0.78</v>
+      </c>
+      <c r="G47">
+        <v>850.8</v>
+      </c>
+      <c r="H47">
+        <v>2.58E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>867.3</v>
+      </c>
+      <c r="D48">
+        <v>936</v>
+      </c>
+      <c r="E48">
+        <v>0.78</v>
+      </c>
+      <c r="G48">
+        <v>845.3</v>
+      </c>
+      <c r="H48">
+        <v>2.5770000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>869.3</v>
+      </c>
+      <c r="D49">
+        <v>944.2</v>
+      </c>
+      <c r="E49">
+        <v>0.78</v>
+      </c>
+      <c r="G49">
+        <v>845.3</v>
+      </c>
+      <c r="H49">
+        <v>2.5770000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="21">
+        <v>13</v>
+      </c>
+      <c r="C50" s="21">
+        <v>869.2</v>
+      </c>
+      <c r="D50" s="21">
+        <v>950.4</v>
+      </c>
+      <c r="E50" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="G50">
+        <v>843.2</v>
+      </c>
+      <c r="H50">
+        <v>2.5770000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>932.9</v>
+      </c>
+      <c r="D51">
+        <v>939.1</v>
+      </c>
+      <c r="E51">
+        <v>0.71</v>
+      </c>
+      <c r="G51">
+        <v>930.9</v>
+      </c>
+      <c r="H51">
+        <v>2.7210000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52">
         <v>6</v>
       </c>
-      <c r="C39">
-        <v>1658.2</v>
-      </c>
-      <c r="D39">
-        <v>1695.6</v>
-      </c>
-      <c r="E39">
-        <v>0.73</v>
-      </c>
-      <c r="G39">
-        <v>1646.2</v>
-      </c>
-      <c r="H39">
-        <v>5.6930000000000001E-2</v>
+      <c r="C52">
+        <v>912.1</v>
+      </c>
+      <c r="D52">
+        <v>949.5</v>
+      </c>
+      <c r="E52">
+        <v>0.74</v>
+      </c>
+      <c r="G52">
+        <v>900.1</v>
+      </c>
+      <c r="H52">
+        <v>2.6839999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D39">
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B52">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1453,7 +3601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C39">
+  <conditionalFormatting sqref="C3:C52">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1465,8 +3613,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E39">
+  <conditionalFormatting sqref="D3:D52">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E52">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1477,8 +3637,1211 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B39">
-    <cfRule type="colorScale" priority="1">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1760</v>
+      </c>
+      <c r="D3">
+        <v>1766.3</v>
+      </c>
+      <c r="E3">
+        <v>0.64</v>
+      </c>
+      <c r="G3">
+        <v>1758</v>
+      </c>
+      <c r="H3">
+        <v>5.8860000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1670.3</v>
+      </c>
+      <c r="D4">
+        <v>1682.8</v>
+      </c>
+      <c r="E4">
+        <v>0.71</v>
+      </c>
+      <c r="G4">
+        <v>1666.3</v>
+      </c>
+      <c r="H4">
+        <v>5.6739999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1661.7</v>
+      </c>
+      <c r="D5">
+        <v>1680.5</v>
+      </c>
+      <c r="E5">
+        <v>0.71</v>
+      </c>
+      <c r="G5">
+        <v>1655.7</v>
+      </c>
+      <c r="H5">
+        <v>5.6559999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1662.7</v>
+      </c>
+      <c r="D6">
+        <v>1687.7</v>
+      </c>
+      <c r="E6">
+        <v>0.71</v>
+      </c>
+      <c r="G6">
+        <v>1654.7</v>
+      </c>
+      <c r="H6">
+        <v>5.654E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1664.7</v>
+      </c>
+      <c r="D7">
+        <v>1695.9</v>
+      </c>
+      <c r="E7">
+        <v>0.71</v>
+      </c>
+      <c r="G7">
+        <v>1654.7</v>
+      </c>
+      <c r="H7">
+        <v>5.654E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1646.9</v>
+      </c>
+      <c r="D8">
+        <v>1684.3</v>
+      </c>
+      <c r="E8">
+        <v>0.74</v>
+      </c>
+      <c r="G8">
+        <v>1634.9</v>
+      </c>
+      <c r="H8">
+        <v>5.636E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1648</v>
+      </c>
+      <c r="D9">
+        <v>1691.7</v>
+      </c>
+      <c r="E9">
+        <v>0.74</v>
+      </c>
+      <c r="G9">
+        <v>1634</v>
+      </c>
+      <c r="H9">
+        <v>5.6329999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1649.9</v>
+      </c>
+      <c r="D10">
+        <v>1699.9</v>
+      </c>
+      <c r="E10">
+        <v>0.74</v>
+      </c>
+      <c r="G10">
+        <v>1633.9</v>
+      </c>
+      <c r="H10">
+        <v>5.6329999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1651.4</v>
+      </c>
+      <c r="D11">
+        <v>1707.6</v>
+      </c>
+      <c r="E11">
+        <v>0.74</v>
+      </c>
+      <c r="G11">
+        <v>1633.4</v>
+      </c>
+      <c r="H11">
+        <v>5.6329999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1653.4</v>
+      </c>
+      <c r="D12">
+        <v>1715.8</v>
+      </c>
+      <c r="E12">
+        <v>0.74</v>
+      </c>
+      <c r="G12">
+        <v>1633.4</v>
+      </c>
+      <c r="H12">
+        <v>5.6320000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1652.4</v>
+      </c>
+      <c r="D13">
+        <v>1721.1</v>
+      </c>
+      <c r="E13">
+        <v>0.74</v>
+      </c>
+      <c r="G13">
+        <v>1630.4</v>
+      </c>
+      <c r="H13">
+        <v>5.6279999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="21">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1653.2</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1728.1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="G14">
+        <v>1629.2</v>
+      </c>
+      <c r="H14">
+        <v>5.6259999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1683.5</v>
+      </c>
+      <c r="D15">
+        <v>1696</v>
+      </c>
+      <c r="E15">
+        <v>0.71</v>
+      </c>
+      <c r="G15">
+        <v>1679.5</v>
+      </c>
+      <c r="H15">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1651.8</v>
+      </c>
+      <c r="D16">
+        <v>1670.6</v>
+      </c>
+      <c r="E16">
+        <v>0.72</v>
+      </c>
+      <c r="G16">
+        <v>1645.8</v>
+      </c>
+      <c r="H16">
+        <v>5.6439999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1651</v>
+      </c>
+      <c r="D17">
+        <v>1676</v>
+      </c>
+      <c r="E17">
+        <v>0.73</v>
+      </c>
+      <c r="G17">
+        <v>1643</v>
+      </c>
+      <c r="H17">
+        <v>5.6370000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1652.9</v>
+      </c>
+      <c r="D18">
+        <v>1684.2</v>
+      </c>
+      <c r="E18">
+        <v>0.73</v>
+      </c>
+      <c r="G18">
+        <v>1642.9</v>
+      </c>
+      <c r="H18">
+        <v>5.636E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>1654.6</v>
+      </c>
+      <c r="D19">
+        <v>1692</v>
+      </c>
+      <c r="E19">
+        <v>0.73</v>
+      </c>
+      <c r="G19">
+        <v>1642.6</v>
+      </c>
+      <c r="H19">
+        <v>5.636E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1643.7</v>
+      </c>
+      <c r="D20">
+        <v>1687.4</v>
+      </c>
+      <c r="E20">
+        <v>0.74</v>
+      </c>
+      <c r="G20">
+        <v>1629.7</v>
+      </c>
+      <c r="H20">
+        <v>5.6250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1645</v>
+      </c>
+      <c r="D21">
+        <v>1695</v>
+      </c>
+      <c r="E21">
+        <v>0.74</v>
+      </c>
+      <c r="G21">
+        <v>1629</v>
+      </c>
+      <c r="H21">
+        <v>5.6230000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1647</v>
+      </c>
+      <c r="D22">
+        <v>1703.2</v>
+      </c>
+      <c r="E22">
+        <v>0.74</v>
+      </c>
+      <c r="G22">
+        <v>1629</v>
+      </c>
+      <c r="H22">
+        <v>5.6230000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1648.8</v>
+      </c>
+      <c r="D23">
+        <v>1711.2</v>
+      </c>
+      <c r="E23">
+        <v>0.74</v>
+      </c>
+      <c r="G23">
+        <v>1628.8</v>
+      </c>
+      <c r="H23">
+        <v>5.6219999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1650.7</v>
+      </c>
+      <c r="D24">
+        <v>1719.4</v>
+      </c>
+      <c r="E24">
+        <v>0.74</v>
+      </c>
+      <c r="G24">
+        <v>1628.7</v>
+      </c>
+      <c r="H24">
+        <v>5.6219999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1651.5</v>
+      </c>
+      <c r="D25">
+        <v>1726.4</v>
+      </c>
+      <c r="E25">
+        <v>0.74</v>
+      </c>
+      <c r="G25">
+        <v>1627.5</v>
+      </c>
+      <c r="H25">
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="21">
+        <v>13</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1651.8</v>
+      </c>
+      <c r="D26" s="21">
+        <v>1732.9</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="G26">
+        <v>1625.8</v>
+      </c>
+      <c r="H26">
+        <v>5.6169999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1738.3</v>
+      </c>
+      <c r="D27">
+        <v>1744.6</v>
+      </c>
+      <c r="E27">
+        <v>0.62</v>
+      </c>
+      <c r="G27">
+        <v>1736.3</v>
+      </c>
+      <c r="H27">
+        <v>5.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1634.4</v>
+      </c>
+      <c r="D28">
+        <v>1646.9</v>
+      </c>
+      <c r="E28">
+        <v>0.69</v>
+      </c>
+      <c r="G28">
+        <v>1630.4</v>
+      </c>
+      <c r="H28">
+        <v>5.5440000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1622.3</v>
+      </c>
+      <c r="D29">
+        <v>1641</v>
+      </c>
+      <c r="E29">
+        <v>0.71</v>
+      </c>
+      <c r="G29">
+        <v>1616.3</v>
+      </c>
+      <c r="H29">
+        <v>5.5169999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1623.1</v>
+      </c>
+      <c r="D30">
+        <v>1648</v>
+      </c>
+      <c r="E30">
+        <v>0.71</v>
+      </c>
+      <c r="G30">
+        <v>1615.1</v>
+      </c>
+      <c r="H30">
+        <v>5.5120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>1625.1</v>
+      </c>
+      <c r="D31">
+        <v>1656.3</v>
+      </c>
+      <c r="E31">
+        <v>0.71</v>
+      </c>
+      <c r="G31">
+        <v>1615.1</v>
+      </c>
+      <c r="H31">
+        <v>5.5120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1601.1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1638.6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="G32">
+        <v>1589.1</v>
+      </c>
+      <c r="H32">
+        <v>5.4760000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1602.5</v>
+      </c>
+      <c r="D33">
+        <v>1646.2</v>
+      </c>
+      <c r="E33">
+        <v>0.74</v>
+      </c>
+      <c r="G33">
+        <v>1588.5</v>
+      </c>
+      <c r="H33">
+        <v>5.4739999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>1604.2</v>
+      </c>
+      <c r="D34">
+        <v>1654.1</v>
+      </c>
+      <c r="E34">
+        <v>0.74</v>
+      </c>
+      <c r="G34">
+        <v>1588.2</v>
+      </c>
+      <c r="H34">
+        <v>5.4730000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1605.1</v>
+      </c>
+      <c r="D35">
+        <v>1661.3</v>
+      </c>
+      <c r="E35">
+        <v>0.74</v>
+      </c>
+      <c r="G35">
+        <v>1587.1</v>
+      </c>
+      <c r="H35">
+        <v>5.4710000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>1607</v>
+      </c>
+      <c r="D36">
+        <v>1669.4</v>
+      </c>
+      <c r="E36">
+        <v>0.74</v>
+      </c>
+      <c r="G36">
+        <v>1587</v>
+      </c>
+      <c r="H36">
+        <v>5.4719999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>1606.2</v>
+      </c>
+      <c r="D37">
+        <v>1674.9</v>
+      </c>
+      <c r="E37">
+        <v>0.74</v>
+      </c>
+      <c r="G37">
+        <v>1584.2</v>
+      </c>
+      <c r="H37">
+        <v>5.4679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="21">
+        <v>12</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1607.4</v>
+      </c>
+      <c r="D38" s="21">
+        <v>1682.4</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="G38">
+        <v>1583.4</v>
+      </c>
+      <c r="H38">
+        <v>5.4679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1646.9</v>
+      </c>
+      <c r="D39">
+        <v>1659.4</v>
+      </c>
+      <c r="E39">
+        <v>0.71</v>
+      </c>
+      <c r="G39">
+        <v>1642.9</v>
+      </c>
+      <c r="H39">
+        <v>5.6149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1612</v>
+      </c>
+      <c r="D40">
+        <v>1630.8</v>
+      </c>
+      <c r="E40">
+        <v>0.73</v>
+      </c>
+      <c r="G40">
+        <v>1606</v>
+      </c>
+      <c r="H40">
+        <v>5.5039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1610</v>
+      </c>
+      <c r="D41">
+        <v>1634.9</v>
+      </c>
+      <c r="E41">
+        <v>0.73</v>
+      </c>
+      <c r="G41">
+        <v>1602</v>
+      </c>
+      <c r="H41">
+        <v>5.493E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1611.9</v>
+      </c>
+      <c r="D42">
+        <v>1643.1</v>
+      </c>
+      <c r="E42">
+        <v>0.73</v>
+      </c>
+      <c r="G42">
+        <v>1601.9</v>
+      </c>
+      <c r="H42">
+        <v>5.493E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>1613.4</v>
+      </c>
+      <c r="D43">
+        <v>1650.9</v>
+      </c>
+      <c r="E43">
+        <v>0.73</v>
+      </c>
+      <c r="G43">
+        <v>1601.4</v>
+      </c>
+      <c r="H43">
+        <v>5.4919999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1597.9</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1641.6</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="G44">
+        <v>1583.9</v>
+      </c>
+      <c r="H44">
+        <v>5.4649999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1599.4</v>
+      </c>
+      <c r="D45">
+        <v>1649.4</v>
+      </c>
+      <c r="E45">
+        <v>0.74</v>
+      </c>
+      <c r="G45">
+        <v>1583.4</v>
+      </c>
+      <c r="H45">
+        <v>5.4629999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1601.4</v>
+      </c>
+      <c r="D46">
+        <v>1657.6</v>
+      </c>
+      <c r="E46">
+        <v>0.74</v>
+      </c>
+      <c r="G46">
+        <v>1583.4</v>
+      </c>
+      <c r="H46">
+        <v>5.4629999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1602.7</v>
+      </c>
+      <c r="D47">
+        <v>1665.2</v>
+      </c>
+      <c r="E47">
+        <v>0.74</v>
+      </c>
+      <c r="G47">
+        <v>1582.7</v>
+      </c>
+      <c r="H47">
+        <v>5.4620000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>1604.7</v>
+      </c>
+      <c r="D48">
+        <v>1673.4</v>
+      </c>
+      <c r="E48">
+        <v>0.74</v>
+      </c>
+      <c r="G48">
+        <v>1582.7</v>
+      </c>
+      <c r="H48">
+        <v>5.4620000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>1605.5</v>
+      </c>
+      <c r="D49">
+        <v>1680.5</v>
+      </c>
+      <c r="E49">
+        <v>0.74</v>
+      </c>
+      <c r="G49">
+        <v>1581.5</v>
+      </c>
+      <c r="H49">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="21">
+        <v>13</v>
+      </c>
+      <c r="C50" s="21">
+        <v>1606.4</v>
+      </c>
+      <c r="D50" s="21">
+        <v>1687.6</v>
+      </c>
+      <c r="E50" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="G50">
+        <v>1580.4</v>
+      </c>
+      <c r="H50">
+        <v>5.459E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1708.8</v>
+      </c>
+      <c r="D51">
+        <v>1715</v>
+      </c>
+      <c r="E51">
+        <v>0.69</v>
+      </c>
+      <c r="G51">
+        <v>1706.8</v>
+      </c>
+      <c r="H51">
+        <v>5.8139999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1658.2</v>
+      </c>
+      <c r="D52">
+        <v>1695.6</v>
+      </c>
+      <c r="E52">
+        <v>0.73</v>
+      </c>
+      <c r="G52">
+        <v>1646.2</v>
+      </c>
+      <c r="H52">
+        <v>5.6930000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B52">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1489,31 +4852,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <conditionalFormatting sqref="C3:C52">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D52">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>